--- a/www/IndicatorsPerCountry/Djibouti_TotalUrbanPopulation_TerritorialRef_1977_2012_CCode_262.xlsx
+++ b/www/IndicatorsPerCountry/Djibouti_TotalUrbanPopulation_TerritorialRef_1977_2012_CCode_262.xlsx
@@ -78,13 +78,13 @@
     <t>Fink-Jensen, Jonathan (2015). Total Urban Population. http://hdl.handle.net/10622/KICLW5, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KICLW5.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KICLW5.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KICLW5.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KICLW5.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KICLW5.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KICLW5.bib</t>
   </si>
 </sst>
 </file>
